--- a/docs/任务分工.xlsx
+++ b/docs/任务分工.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7775BE-EB6A-4DEA-BD75-75B104D80172}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253D3859-4C15-40D6-978A-9119421961ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,17 +411,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,88 +428,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -526,6 +457,76 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -809,7 +810,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -824,207 +825,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A6" s="15"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A9" s="15"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G11" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B5:C5"/>
@@ -1032,6 +1028,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
